--- a/data/Реестор ЦПС.xlsx
+++ b/data/Реестор ЦПС.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\testingcenter\Documents\StreamlitApps\008_Rosseti\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C9212C-E8AF-4409-8146-63F21B0725EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31354F3A-D2F2-4B2E-A886-B4CE4DB7B2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="262">
   <si>
     <t>ДЗО ПАО Россети</t>
   </si>
@@ -898,6 +898,183 @@
   </si>
   <si>
     <t>Россети "Урал"</t>
+  </si>
+  <si>
+    <t>ПС 500 кВ "Тобол"</t>
+  </si>
+  <si>
+    <t>ПС 500 кВ "Сомкинская"</t>
+  </si>
+  <si>
+    <t>ПС 500 кВ "Трачуковская"</t>
+  </si>
+  <si>
+    <t>ПС 220 кВ "Надым"</t>
+  </si>
+  <si>
+    <t>ПС 220 кВ "Благовещенская"</t>
+  </si>
+  <si>
+    <t>ПС 220 кВ "Просвет"</t>
+  </si>
+  <si>
+    <t>ПС 220 кВ "Петровск ‐ Забайкальская"</t>
+  </si>
+  <si>
+    <t>ПС 220 кВ "Луч"</t>
+  </si>
+  <si>
+    <t>ПС 220 кВ "Радищево"</t>
+  </si>
+  <si>
+    <t>ПС 220 кВ "Новобрянская"</t>
+  </si>
+  <si>
+    <t>ПС 220 кВ "Найтоповичи"</t>
+  </si>
+  <si>
+    <t>ПС 220 кВ "Ужур"</t>
+  </si>
+  <si>
+    <t>ПС 330 кВ "Сеймская"</t>
+  </si>
+  <si>
+    <t>ПС 330 кВ "Курская"</t>
+  </si>
+  <si>
+    <t>ПС 1150 кВ "Итатская"</t>
+  </si>
+  <si>
+    <t>ПС 220 кВ "Мокша"</t>
+  </si>
+  <si>
+    <t>ПС 220 кВ "Зимовники"</t>
+  </si>
+  <si>
+    <t>ПС 220 кВ "Черноморская"</t>
+  </si>
+  <si>
+    <t>ПС 220 кВ "Вешенская"</t>
+  </si>
+  <si>
+    <t>ПС 220 кВ "Афипская"</t>
+  </si>
+  <si>
+    <t>ПС 330 кВ "Благодарная"</t>
+  </si>
+  <si>
+    <t>ПС 220 кВ "Барсово"</t>
+  </si>
+  <si>
+    <t>ПС 500 кВ "Южная"</t>
+  </si>
+  <si>
+    <t>ПС 500 кВ "Нижегородская"</t>
+  </si>
+  <si>
+    <t>ПС 500 кВ "Луч"</t>
+  </si>
+  <si>
+    <t>Россети "ФСК ЕЭС"</t>
+  </si>
+  <si>
+    <t>ПНР</t>
+  </si>
+  <si>
+    <t>ПСД</t>
+  </si>
+  <si>
+    <t>58.286531, 68.448000</t>
+  </si>
+  <si>
+    <t>61.351192, 72.965366</t>
+  </si>
+  <si>
+    <t>61.287586, 75.230421</t>
+  </si>
+  <si>
+    <t>65.310772, 73.045392</t>
+  </si>
+  <si>
+    <t>Филиал "МЭС Волги"</t>
+  </si>
+  <si>
+    <t>Филиал "МЭС Востока"</t>
+  </si>
+  <si>
+    <t>Филиал "МЭС Центра"</t>
+  </si>
+  <si>
+    <t>Филиал "МЭС Северо-Запада"</t>
+  </si>
+  <si>
+    <t>Филиал "МЭС Сибири"</t>
+  </si>
+  <si>
+    <t>Филиал "МЭС Юга"</t>
+  </si>
+  <si>
+    <t>45.033056, 35.986111</t>
+  </si>
+  <si>
+    <t>Филиал "МЭС Урала"</t>
+  </si>
+  <si>
+    <t>50.337244, 127.541056</t>
+  </si>
+  <si>
+    <t>52.989338, 50.532668</t>
+  </si>
+  <si>
+    <t>55.921198, 36.824144</t>
+  </si>
+  <si>
+    <t>56.226057, 36.963716</t>
+  </si>
+  <si>
+    <t>53.108350, 34.045258</t>
+  </si>
+  <si>
+    <t>52.775329, 32.713659</t>
+  </si>
+  <si>
+    <t>55.290178, 89.842916</t>
+  </si>
+  <si>
+    <t>51.728065, 36.454353</t>
+  </si>
+  <si>
+    <t>51.492384, 36.090229</t>
+  </si>
+  <si>
+    <t>55.437700, 89.072954</t>
+  </si>
+  <si>
+    <t>54.016842, 43.909518</t>
+  </si>
+  <si>
+    <t>47.171208, 42.470503</t>
+  </si>
+  <si>
+    <t>49.543897, 41.815917</t>
+  </si>
+  <si>
+    <t>44.888400, 38.845730</t>
+  </si>
+  <si>
+    <t>45.088501, 43.412580</t>
+  </si>
+  <si>
+    <t>61.262534, 73.210809</t>
+  </si>
+  <si>
+    <t>48.362808, 44.352450</t>
+  </si>
+  <si>
+    <t>56.087470, 43.910615</t>
+  </si>
+  <si>
+    <t>56.394365, 43.701833</t>
   </si>
 </sst>
 </file>
@@ -942,26 +1119,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1301,28 +1477,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" customWidth="1"/>
-    <col min="11" max="11" width="134.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1332,13 +1508,13 @@
       <c r="C1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>190</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>185</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1347,7 +1523,7 @@
       <c r="H1" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>183</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1367,7 +1543,7 @@
       <c r="C2" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>110</v>
       </c>
       <c r="E2" t="s">
@@ -1379,7 +1555,7 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="4">
         <v>2021</v>
       </c>
       <c r="I2" t="s">
@@ -1402,7 +1578,7 @@
       <c r="C3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>110</v>
       </c>
       <c r="E3" t="s">
@@ -1434,7 +1610,7 @@
       <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>110</v>
       </c>
       <c r="E4" t="s">
@@ -1446,7 +1622,7 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>2019</v>
       </c>
       <c r="I4" t="s">
@@ -1469,7 +1645,7 @@
       <c r="C5" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>110</v>
       </c>
       <c r="E5" t="s">
@@ -1481,7 +1657,7 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>2019</v>
       </c>
       <c r="I5" t="s">
@@ -1504,7 +1680,7 @@
       <c r="C6" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>110</v>
       </c>
       <c r="E6" t="s">
@@ -1516,7 +1692,7 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <v>2018</v>
       </c>
       <c r="I6" t="s">
@@ -1539,7 +1715,7 @@
       <c r="C7" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>35</v>
       </c>
       <c r="E7" t="s">
@@ -1551,7 +1727,7 @@
       <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>2021</v>
       </c>
       <c r="I7" t="s">
@@ -1574,7 +1750,7 @@
       <c r="C8" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>35</v>
       </c>
       <c r="E8" t="s">
@@ -1586,7 +1762,7 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>2020</v>
       </c>
       <c r="I8" t="s">
@@ -1609,7 +1785,7 @@
       <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>110</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1621,7 +1797,7 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>2021</v>
       </c>
       <c r="I9" t="s">
@@ -1644,7 +1820,7 @@
       <c r="C10" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1656,7 +1832,7 @@
       <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <v>2021</v>
       </c>
       <c r="I10" t="s">
@@ -1679,7 +1855,7 @@
       <c r="C11" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>110</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1691,7 +1867,7 @@
       <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="4">
         <v>2010</v>
       </c>
       <c r="I11" t="s">
@@ -1714,7 +1890,7 @@
       <c r="C12" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>110</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1726,7 +1902,7 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <v>2014</v>
       </c>
       <c r="I12" t="s">
@@ -1749,7 +1925,7 @@
       <c r="C13" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1781,7 +1957,7 @@
       <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1793,7 +1969,7 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="4">
         <v>2013</v>
       </c>
       <c r="I14" t="s">
@@ -1813,7 +1989,7 @@
       <c r="C15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>110</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1825,7 +2001,7 @@
       <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="4">
         <v>2018</v>
       </c>
       <c r="I15" t="s">
@@ -1845,7 +2021,7 @@
       <c r="C16" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>110</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1857,7 +2033,7 @@
       <c r="G16" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="4">
         <v>2019</v>
       </c>
       <c r="I16" t="s">
@@ -1877,7 +2053,7 @@
       <c r="C17" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>110</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1889,7 +2065,7 @@
       <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="4">
         <v>2020</v>
       </c>
       <c r="I17" t="s">
@@ -1909,7 +2085,7 @@
       <c r="C18" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>110</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1921,7 +2097,7 @@
       <c r="G18" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="4">
         <v>2020</v>
       </c>
       <c r="I18" t="s">
@@ -1944,7 +2120,7 @@
       <c r="C19" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1956,7 +2132,7 @@
       <c r="G19" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="4">
         <v>2019</v>
       </c>
       <c r="I19" t="s">
@@ -1979,7 +2155,7 @@
       <c r="C20" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>110</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1991,7 +2167,7 @@
       <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="4">
         <v>2023</v>
       </c>
       <c r="I20" t="s">
@@ -2014,7 +2190,7 @@
       <c r="C21" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>110</v>
       </c>
       <c r="E21" t="s">
@@ -2026,7 +2202,7 @@
       <c r="G21" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="4">
         <v>2022</v>
       </c>
       <c r="I21" t="s">
@@ -2049,7 +2225,7 @@
       <c r="C22" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>110</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2061,7 +2237,7 @@
       <c r="G22" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="4">
         <v>2023</v>
       </c>
       <c r="I22" t="s">
@@ -2084,7 +2260,7 @@
       <c r="C23" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>110</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -2096,7 +2272,7 @@
       <c r="G23" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="4">
         <v>2020</v>
       </c>
       <c r="I23" t="s">
@@ -2119,7 +2295,7 @@
       <c r="C24" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>35</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -2131,7 +2307,7 @@
       <c r="G24" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="4">
         <v>2021</v>
       </c>
       <c r="I24" t="s">
@@ -2154,7 +2330,7 @@
       <c r="C25" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -2166,7 +2342,7 @@
       <c r="G25" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="4">
         <v>2021</v>
       </c>
       <c r="I25" t="s">
@@ -2189,7 +2365,7 @@
       <c r="C26" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>110</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2201,7 +2377,7 @@
       <c r="G26" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="4">
         <v>2020</v>
       </c>
       <c r="I26" t="s">
@@ -2224,7 +2400,7 @@
       <c r="C27" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="3">
         <v>110</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -2236,7 +2412,7 @@
       <c r="G27" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="4">
         <v>2020</v>
       </c>
       <c r="I27" t="s">
@@ -2259,7 +2435,7 @@
       <c r="C28" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2271,7 +2447,7 @@
       <c r="G28" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="4">
         <v>2027</v>
       </c>
       <c r="I28" t="s">
@@ -2294,7 +2470,7 @@
       <c r="C29" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <v>110</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2306,7 +2482,7 @@
       <c r="G29" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="4">
         <v>2024</v>
       </c>
       <c r="I29" t="s">
@@ -2329,7 +2505,7 @@
       <c r="C30" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <v>110</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -2341,7 +2517,7 @@
       <c r="G30" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="4">
         <v>2023</v>
       </c>
       <c r="I30" t="s">
@@ -2361,7 +2537,7 @@
       <c r="C31" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <v>110</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -2373,7 +2549,7 @@
       <c r="G31" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="4">
         <v>2021</v>
       </c>
       <c r="I31" t="s">
@@ -2396,7 +2572,7 @@
       <c r="C32" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>110</v>
       </c>
       <c r="F32" t="s">
@@ -2405,7 +2581,7 @@
       <c r="G32" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="4">
         <v>2020</v>
       </c>
       <c r="I32" t="s">
@@ -2428,7 +2604,7 @@
       <c r="C33" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>110</v>
       </c>
       <c r="F33" t="s">
@@ -2437,7 +2613,7 @@
       <c r="G33" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="4">
         <v>2020</v>
       </c>
       <c r="I33" t="s">
@@ -2460,7 +2636,7 @@
       <c r="C34" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>110</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -2472,7 +2648,7 @@
       <c r="G34" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="4">
         <v>2023</v>
       </c>
       <c r="I34" t="s">
@@ -2495,7 +2671,7 @@
       <c r="C35" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>110</v>
       </c>
       <c r="E35" t="s">
@@ -2507,7 +2683,7 @@
       <c r="G35" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="4">
         <v>2021</v>
       </c>
       <c r="I35" t="s">
@@ -2530,7 +2706,7 @@
       <c r="C36" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>110</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2562,7 +2738,7 @@
       <c r="C37" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>35</v>
       </c>
       <c r="E37" t="s">
@@ -2574,7 +2750,7 @@
       <c r="G37" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="4">
         <v>2019</v>
       </c>
       <c r="I37" t="s">
@@ -2597,7 +2773,7 @@
       <c r="C38" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>35</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -2609,7 +2785,7 @@
       <c r="G38" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="4">
         <v>2019</v>
       </c>
       <c r="I38" t="s">
@@ -2632,7 +2808,7 @@
       <c r="C39" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>110</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -2664,7 +2840,7 @@
       <c r="C40" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="3">
         <v>110</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -2696,7 +2872,7 @@
       <c r="C41" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="3">
         <v>110</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -2728,7 +2904,7 @@
       <c r="C42" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="3">
         <v>110</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -2760,7 +2936,7 @@
       <c r="C43" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="3">
         <v>110</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -2772,7 +2948,7 @@
       <c r="G43" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="4">
         <v>2021</v>
       </c>
       <c r="I43" t="s">
@@ -2795,7 +2971,7 @@
       <c r="C44" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="3">
         <v>110</v>
       </c>
       <c r="E44" t="s">
@@ -2807,7 +2983,7 @@
       <c r="G44" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="4">
         <v>2021</v>
       </c>
       <c r="I44" t="s">
@@ -2830,7 +3006,7 @@
       <c r="C45" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="3">
         <v>110</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -2842,7 +3018,7 @@
       <c r="G45" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="4">
         <v>2021</v>
       </c>
       <c r="I45" t="s">
@@ -2865,7 +3041,7 @@
       <c r="C46" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <v>110</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -2877,7 +3053,7 @@
       <c r="G46" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="4">
         <v>2021</v>
       </c>
       <c r="I46" t="s">
@@ -2900,7 +3076,7 @@
       <c r="C47" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="3">
         <v>110</v>
       </c>
       <c r="F47" t="s">
@@ -2909,7 +3085,7 @@
       <c r="G47" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="4">
         <v>2021</v>
       </c>
       <c r="I47" t="s">
@@ -2932,7 +3108,7 @@
       <c r="C48" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="3">
         <v>110</v>
       </c>
       <c r="F48" t="s">
@@ -2941,7 +3117,7 @@
       <c r="G48" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="4">
         <v>2021</v>
       </c>
       <c r="I48" t="s">
@@ -2964,7 +3140,7 @@
       <c r="C49" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="3">
         <v>110</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -2976,7 +3152,7 @@
       <c r="G49" t="s">
         <v>61</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="4">
         <v>2021</v>
       </c>
       <c r="I49" t="s">
@@ -2999,7 +3175,7 @@
       <c r="C50" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="3">
         <v>110</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3011,7 +3187,7 @@
       <c r="G50" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="4">
         <v>2021</v>
       </c>
       <c r="I50" t="s">
@@ -3028,7 +3204,7 @@
       <c r="C51" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="3">
         <v>110</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -3040,7 +3216,7 @@
       <c r="G51" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="4">
         <v>2021</v>
       </c>
       <c r="I51" t="s">
@@ -3057,7 +3233,7 @@
       <c r="C52" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="3">
         <v>110</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -3069,11 +3245,586 @@
       <c r="G52" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="4">
         <v>2021</v>
       </c>
       <c r="I52" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" t="s">
+        <v>203</v>
+      </c>
+      <c r="D53" s="3">
+        <v>500</v>
+      </c>
+      <c r="E53" t="s">
+        <v>231</v>
+      </c>
+      <c r="F53" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="4">
+        <v>2018</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="4">
+        <v>2022</v>
+      </c>
+      <c r="I54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="3">
+        <v>500</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="4">
+        <v>2021</v>
+      </c>
+      <c r="I55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" s="3">
+        <v>220</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="4">
+        <v>2022</v>
+      </c>
+      <c r="I56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="3">
+        <v>220</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>228</v>
+      </c>
+      <c r="B58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="3">
+        <v>220</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="4">
+        <v>2022</v>
+      </c>
+      <c r="I58" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" t="s">
+        <v>210</v>
+      </c>
+      <c r="D60" s="3">
+        <v>220</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" s="3">
+        <v>220</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="4">
+        <v>2020</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" t="s">
+        <v>238</v>
+      </c>
+      <c r="C62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" s="3">
+        <v>220</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" s="3">
+        <v>220</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>228</v>
+      </c>
+      <c r="B64" t="s">
+        <v>239</v>
+      </c>
+      <c r="C64" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" s="3">
+        <v>220</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I64" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>228</v>
+      </c>
+      <c r="B65" t="s">
+        <v>237</v>
+      </c>
+      <c r="C65" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" s="3">
+        <v>330</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>228</v>
+      </c>
+      <c r="B66" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="3">
+        <v>330</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I66" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>228</v>
+      </c>
+      <c r="B67" t="s">
+        <v>239</v>
+      </c>
+      <c r="C67" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" s="3">
+        <v>500</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="4">
+        <v>2021</v>
+      </c>
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" t="s">
+        <v>218</v>
+      </c>
+      <c r="D68" s="3">
+        <v>220</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" t="s">
+        <v>219</v>
+      </c>
+      <c r="D69" s="3">
+        <v>220</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="3">
+        <v>220</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" t="s">
+        <v>221</v>
+      </c>
+      <c r="D71" s="3">
+        <v>220</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" t="s">
+        <v>240</v>
+      </c>
+      <c r="C72" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72" s="3">
+        <v>220</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" s="3">
+        <v>330</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" s="3">
+        <v>220</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="4">
+        <v>2021</v>
+      </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" t="s">
+        <v>237</v>
+      </c>
+      <c r="C75" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" s="3">
+        <v>500</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2022</v>
+      </c>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>228</v>
+      </c>
+      <c r="B76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="3">
+        <v>500</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" s="3">
+        <v>500</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
